--- a/DK Salary Optimization Sheets/DKSalaries_11202014_optimization.xlsx
+++ b/DK Salary Optimization Sheets/DKSalaries_11202014_optimization.xlsx
@@ -97,7 +97,7 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="481">
   <si>
     <t>Position</t>
   </si>
@@ -2451,7 +2451,7 @@
   <dimension ref="A1:AA328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2538,14 +2538,14 @@
       </c>
       <c r="U1" s="2">
         <f>SUM(K2:K230)</f>
-        <v>247.63566589384487</v>
+        <v>233.09308424846239</v>
       </c>
       <c r="V1" t="s">
         <v>15</v>
       </c>
       <c r="W1">
         <f>SUM(M:M)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>467</v>
@@ -2626,14 +2626,14 @@
       </c>
       <c r="U2">
         <f>SUM(L2:L230)</f>
-        <v>49500</v>
+        <v>50000</v>
       </c>
       <c r="V2" t="s">
         <v>19</v>
       </c>
       <c r="W2">
         <f>SUM(N:N)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="s">
         <v>49</v>
@@ -2678,19 +2678,19 @@
         <v>40.309958963897799</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K66" si="4">J3*I3</f>
-        <v>0</v>
+        <v>40.309958963897799</v>
       </c>
       <c r="L3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9600</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <f t="shared" si="1"/>
@@ -3004,18 +3004,18 @@
       </c>
       <c r="I7" s="4">
         <f t="shared" si="3"/>
-        <v>35.762338886985901</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <f t="shared" si="4"/>
-        <v>35.762338886985901</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <f t="shared" si="1"/>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <f t="shared" si="1"/>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="R7">
         <f t="shared" si="5"/>
-        <v>4.4702923608732377</v>
+        <v>0</v>
       </c>
       <c r="V7" t="s">
         <v>20</v>
@@ -3160,18 +3160,18 @@
       </c>
       <c r="I9" s="4">
         <f t="shared" si="3"/>
-        <v>41.186619063791902</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <f t="shared" si="4"/>
-        <v>41.186619063791902</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>7600</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <f t="shared" si="1"/>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="R9">
         <f t="shared" si="5"/>
-        <v>5.4192919820778824</v>
+        <v>0</v>
       </c>
       <c r="V9" t="s">
         <v>22</v>
@@ -3204,6 +3204,9 @@
         <f>SUM(W1:W5)</f>
         <v>8</v>
       </c>
+      <c r="Y9" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
@@ -3238,15 +3241,15 @@
         <v>33.080427974836297</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>33.080427974836297</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7400</v>
       </c>
       <c r="M10">
         <f t="shared" si="1"/>
@@ -3266,12 +3269,15 @@
       </c>
       <c r="Q10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <f t="shared" si="5"/>
         <v>4.4703281047076082</v>
       </c>
+      <c r="Y10" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
@@ -3340,6 +3346,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="Y11" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
@@ -3407,6 +3416,9 @@
       <c r="R12">
         <f t="shared" si="5"/>
         <v>4.5831664928700855</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
@@ -3659,18 +3671,18 @@
       </c>
       <c r="I16" s="4">
         <f t="shared" si="3"/>
-        <v>29.113789170667101</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <f t="shared" si="4"/>
-        <v>29.113789170667101</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <f t="shared" si="6"/>
@@ -3678,7 +3690,7 @@
       </c>
       <c r="N16">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <f t="shared" si="6"/>
@@ -3694,7 +3706,7 @@
       </c>
       <c r="R16">
         <f t="shared" si="5"/>
-        <v>5.391442439012426</v>
+        <v>0</v>
       </c>
       <c r="T16" t="s">
         <v>25</v>
@@ -3804,15 +3816,15 @@
         <v>23.778877181440599</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>23.778877181440599</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="M18">
         <f t="shared" si="6"/>
@@ -3824,7 +3836,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18">
         <f t="shared" si="6"/>
@@ -4484,18 +4496,18 @@
       </c>
       <c r="I28" s="4">
         <f t="shared" si="3"/>
-        <v>20.1608730427496</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <f t="shared" si="4"/>
-        <v>20.1608730427496</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <f t="shared" si="0"/>
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="M28">
         <f t="shared" si="7"/>
@@ -4515,11 +4527,11 @@
       </c>
       <c r="Q28">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28">
         <f t="shared" si="5"/>
-        <v>6.1093554674998787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.45">
@@ -6527,15 +6539,15 @@
         <v>14.5117743986373</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>14.5117743986373</v>
       </c>
       <c r="L58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="M58">
         <f t="shared" si="10"/>
@@ -6543,7 +6555,7 @@
       </c>
       <c r="N58">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58">
         <f t="shared" si="10"/>
